--- a/src/test/resources/outPutData.xlsx
+++ b/src/test/resources/outPutData.xlsx
@@ -1,18 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GIT_Hackathon\Team20_Scraping-Squad\src\test\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B82C36F-0A05-4F48-921F-AC1B940F82FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hypertension" r:id="rId3" sheetId="1"/>
+    <sheet name="Hypertension" sheetId="1" r:id="rId1"/>
+    <sheet name="PCOS" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="237">
   <si>
     <t>37261</t>
   </si>
@@ -166,15 +175,1502 @@
   <si>
     <t>https://www.tarladalal.com/aam-lassi-slush-2848r</t>
   </si>
+  <si>
+    <t>Recipe ID</t>
+  </si>
+  <si>
+    <t>Recipe Name</t>
+  </si>
+  <si>
+    <t>Recipe Category(Breakfast/lunch/snack/dinner)</t>
+  </si>
+  <si>
+    <t>Food Category(Veg/non-veg/vegan/Jain)</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>Preparation Time</t>
+  </si>
+  <si>
+    <t>Cooking Time</t>
+  </si>
+  <si>
+    <t>Preparation method</t>
+  </si>
+  <si>
+    <t>Nutrient values</t>
+  </si>
+  <si>
+    <t>Targetted morbid conditions (Diabeties/Hypertension/Hypothyroidism)</t>
+  </si>
+  <si>
+    <t>Recipe URL</t>
+  </si>
+  <si>
+    <t>36291</t>
+  </si>
+  <si>
+    <t>Aam Ke Pakode, Mango Bhajiya</t>
+  </si>
+  <si>
+    <t>1 1/2 cups riped alphonso mango cubes
+oil for deep-frying
+To Be Mixed Into A Thick Batter (using Approx. 3/4 Cup Of Water)
+3/4 cup besan (bengal gram flour)
+1/4 cup rice flour (chawal ka atta)
+1/4 tsp carom seeds (ajwain)
+1/2 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+2 pinches asafoetida (hing)
+salt to taste</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a deep non-stick pan, dip the mango cubes individually into the batter and deep-fry till they turn golden brown and crisp from all the sides. Drain on an absorbent paper.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 237 cal
+Protein 5.8 g
+Carbohydrates 27.3 g
+Fiber 4.2 g
+Fat 11.6 g
+Cholesterol 0 mg
+Vitamin A 1273.8 mcg
+Vitamin B1 0.2 mg
+Vitamin B2 0.1 mg
+Vitamin B3 1.1 mg
+Vitamin C 7 mg
+Folic Acid 36.6 mcg
+Calcium 20.3 mg
+Iron 1.9 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 28.9 mg
+Potassium 268.4 mg
+Zinc 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ke-pakode-mango-bhajiya-36291r</t>
+  </si>
+  <si>
+    <t>Hypertension</t>
+  </si>
+  <si>
+    <t>32939</t>
+  </si>
+  <si>
+    <t>Indian achari paneer tikka recipe | Punjabi style achari paneer tikka | paneer tikka snack | healthy achari tikka |</t>
+  </si>
+  <si>
+    <t>For The Achaari Marinade
+1 tbsp green chilli pickle
+1/2 cup hung curds (chakka dahi)
+1 tsp chopped garlic (lehsun)
+1 tsp fennel seeds (saunf)
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp nigella seeds (kalonji)
+1 tsp cumin seeds (jeera)
+1/4 tsp turmeric powder (haldi)
+1 tbsp mustard (rai / sarson) oil
+salt to taste
+Other Ingredients
+1 1/2 cups paneer (cottage cheese) cubes
+oil for greasing and cooking
+For Serving
+dahiwali pudina chutney</t>
+  </si>
+  <si>
+    <t>Method
+For the achaari marinade
+Combine all the ingredients, except the curds in a mixer and blend to a coarse mixture.
+Transfer the mixture into a deep bowl, add the curds and mix well.
+How to proceed
+To make achaari paneer tikka, add the paneer to the prepared achaari marinade, mix gently and keep aside to marinate for 20 minutes.
+Arrange the marinated paneer cubes equally on satay sticks and keep aside.
+Heat a non-stick tava (griddle), grease it with little oil, place a few satays on it and cook on a medium flame, using a little oil, till they turn golden brown in colour from all the sides.
+Repeat step 3 to cook more satays.
+Serve the achaari paneer tikka immediately with dahiwali phudina chutney.</t>
+  </si>
+  <si>
+    <t>Energy 274 cal
+Protein 9.5 g
+Carbohydrates 7 g
+Fiber 0 g
+Fat 21.9 g
+Cholesterol 8 mg
+Sodium 9.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achaari-paneer-tikka-32939r</t>
+  </si>
+  <si>
+    <t>22718</t>
+  </si>
+  <si>
+    <t>achari dip recipe | healthy achar dip | Indian achari dip |</t>
+  </si>
+  <si>
+    <t>For Achar Dip
+3/4 cup hung curds (chakka dahi)
+salt to taste
+For The Achaari Mixture
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp mustard seeds ( rai / sarson)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp fennel seeds (saunf)
+1/4 tsp nigella seeds (kalonji)
+1/2 tsp oil
+a pinch of asafoetida (hing)
+1/4 cup chopped coriander (dhania)
+1/2 tsp finely chopped green chillies
+1/2 tbsp powdered sugar
+For Serving With Achar Dip
+khakhras</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>1 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the achaari mixture
+Heat the oil in a small non-stick pan, add the fenugreek seeds, mustard seeds, cumin seeds, fennel seeds and nigella seeds and sauté on a medium flame for 30 seconds.
+When the seeds crackle, add the asafoetida and mix well.
+Transfer the mixture into a deep bowl and allow the mixture to cool completely.
+Add the coriander, green chillies and powdered sugar and blend in a mixer to smooth paste using 2 tbsp of water. Keep aside.
+How to proceed to make achar dip
+To make achari dip, combine the achaari mixture, curds and salt in a deep bowl and mix well using a whisk.
+Refrigerate for at least 1 hour.
+Serve the achari dip chilled with khakhras.</t>
+  </si>
+  <si>
+    <t>Energy 28 cal
+Protein 0.9 g
+Carbohydrates 1.5 g
+Fiber 0 g
+Fat 1.5 g
+Cholesterol 3.4 mg
+Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achar-dip-achari-dip-22718r</t>
+  </si>
+  <si>
+    <t>36293</t>
+  </si>
+  <si>
+    <t>Achaari Paneer Warqi</t>
+  </si>
+  <si>
+    <t>For The Achaari Paneer
+1 1/2 cups crumbled paneer (cottage cheese)
+2 tbsp mustard (rai / sarson) oil
+2 tsp cumin seeds (jeera)
+1 tsp fennel seeds (saunf)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp nigella seeds (kalonji)
+1/4 tsp mustard seeds ( rai / sarson)
+1/2 cup finely chopped onions
+2 tsp grated ginger (adrak)
+1 tsp finely chopped green chillies
+1/4 tsp turmeric powder (haldi)
+1/4 cup chopped coriander (dhania)
+salt to taste
+For The Warqi
+5 samosa pattis
+a pinch nigella seeds (kalonji)
+a pinch turmeric powder (haldi)
+a pinch chilli powder
+1 tbsp oil</t>
+  </si>
+  <si>
+    <t>Method
+For the achaari paneer
+Heat the oil in a pan and add the cumin seeds, fenugreek seeds, fennel seeds, onion seeds and mustard seeds.
+When the seeds crackle, add the onions, green chillies, ginger, garlic and sauté for 2 minutes.
+Add the paneer, turmeric powder, coriander and salt and mix well, cook for 3-4 minutes.
+Keep aside.
+For the warqi
+Arrange the samosa pattis one on top of other on a baking tray, using oil to grease between the sheets. Sprinkle with onion seeds, turmeric powder and chilli powder.
+Bake in a pre-heated oven at 180°c (360°f) till they turn crisp.
+Cut into 2½“squares and keep aside.
+How to proceed
+Place a spoonful of the achari paneer mixture on a sheet of samosa pattis warqi and serve immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achaari-paneer-warqi-36293r</t>
+  </si>
+  <si>
+    <t>32665</t>
+  </si>
+  <si>
+    <t>Achaari Aloo Roll ( Wraps and Rolls)</t>
+  </si>
+  <si>
+    <t>For The Aam Aur Chane ka Achaar
+1 1/2 cups grated raw mangoes
+1 tsp turmeric powder (haldi)
+1 tbsp salt
+1 tbsp fenugreek (methi) seeds
+1/2 cup kabuli chana (white chick peas)
+1 tbsp fenugreek seeds (methi) powder
+1 tbsp fennel seeds (saunf)
+1/2 tsp asafoetida (hing)
+1 tsp nigella seeds (kalonji)
+14 whole dry kashmiri red chillies
+1 tbsp chilli powder
+1 1/4 cups mustard (rai / sarson) oil
+For The Spicy Potato Filling
+2 tbsp oil
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+2 tsp finely chopped green chillies
+1 tsp grated ginger (adrak)
+1 1/2 cups boiled , peeled and mashed potatoes
+1/2 cup boiled green peas
+2 tsp chaat masala
+2 tsp garam masala
+1 tbsp finely chopped coriander (dhania)
+salt to taste
+Other Ingredients
+1 cup onion rings
+chaat masala to taste
+4 rotis</t>
+  </si>
+  <si>
+    <t>Method
+For aam aur chane ka achaar
+Combine the mangoes, turmeric powder and salt in a bowl, mix well and leave aside for 30 minutes. Squeeze out all the water from the mangoes and keep refrigerated till use.
+Soak the kabuli chana and fenugreek seeds in the mango water overnight.
+Combine the fenugreek seeds powder, fennel seeds, asafoetida, nigella seeds, whole red chillies, chilli powder, soaked kabuli chana mixture and grated mangoes in a bowl and mix well.
+Heat the mustard oil in a small pan and cool completely. Add it to the prepared mixture.
+Place the pickle in a sterilised glass jar and store it in a cool dry place.
+The pickle is ready to eat after 3 to 4 days. Store it a cool dry place for upto 1 year.
+For the spicy potato filling
+Heat the oil in a broad pan and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame till they turn translucent.
+Add the green chillies and ginger and sauté on a medium flame for 30 seconds.
+Add the potatoes, green peas, chaat masala, garam masala, coriander and salt, mix well and sauté on a medium flame for another 2 to 3 minutes. Keep aside.
+How to proceed
+Combine the onion rings and chaat masala in a bowl, mix well and keep aside.
+Place a roti on a clean dry surface and arrange ¼th of the spicy potato filling in a row in the centre of the roti.
+Spread 1 tsp of aam aur chane ka achaar and arrange ¼ cup of onion rings over it and roll it up tightly.
+Repeat with the remaining ingredients to make 3 more rolls.
+Wrap a tissue paper around each roll and serve immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achaari-aloo-roll--wraps-and-rolls-32665r</t>
+  </si>
+  <si>
+    <t>3427</t>
+  </si>
+  <si>
+    <t>Aam ki Katki ka Muraba</t>
+  </si>
+  <si>
+    <t>2 cups finely chopped raw mango
+1/4 cup grated raw mango
+2 cups (400 grams) sugar
+2 tbsp Sambhaar
+2 tbsp peeled and sliced almonds
+1 tsp poppy seeds (khus-khus)
+1/2 tsp salt</t>
+  </si>
+  <si>
+    <t>15 mins.</t>
+  </si>
+  <si>
+    <t>45 mins.</t>
+  </si>
+  <si>
+    <t>Method
+Combine the sugar with 3 cups of water and cook till the sugar has dissolved, stirring occasionally.
+Add the mango pieces and grated mangoes and cook over a slow flame (approximately 25 to 30 minutes), stirring occasionally till the sugar syrup is of one string consistency and the mango pieces are soft and translucent.
+Add the sambhaar, almonds, poppy seeds and salt and mix well.
+Allow to cool completely. Bottle in a sterilised glass jar. This can be stored for upto 1 year refrigerated.</t>
+  </si>
+  <si>
+    <t>Energy 69 cal
+Protein 0.3 g
+Carbohydrates 15.2 g
+Fiber 0.1 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 85.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ki-katki-ka-muraba-3427r</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>aam chana achar recipe | Rajasthani aam chana ka achar | Indian mango pickle with chana | kabuli chana achar |</t>
+  </si>
+  <si>
+    <t>For Aam Chana Achar
+1 1/2 cups grated raw mango
+1/2 cup kabuli chana (white chick peas)
+1 tsp turmeric powder (haldi)
+salt to taste
+1 tbsp fenugreek (methi) seeds
+1 tbsp fenugreek seeds (methi) powder
+1 tbsp fennel seeds (saunf)
+1/2 tsp asafoetida (hing)
+1 tsp nigella seeds (kalonji)
+7 whole dry kashmiri red chillies
+1 tbsp chilli powder
+1 1/4 cups mustard (rai / sarson) oil</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>Method
+For aam chana achar
+To make aam chana achar, combine the raw mango, turmeric powder and salt in a deep bowl, mix well and keep aside for 30 minutes.
+Squeeze out all the water from the raw mango in a bowl and keep aside. Keep the raw mango water and grated raw mango separately.
+Refrigerate the grated raw mango overnight.
+Combine the fenugreek seeds, kabuli chana and raw mango water into a deep bowl, mix well and cover and keep aside overnight.
+Combine the fenugreek seed powder, fennel seeds, asafoetida, nigella seeds, kashmiri red chillies, chilli powder along the grated raw mango and kabuli chana-fenugreek seeds mixture into a deep bowl, mix well and keep aside.
+Heat the mustard oil in a deep non-stick kadhai on a medium flame for 3 to 4 minutes or till red hot.
+Remove from the flame and allow it to cool.
+Once cooled, add the oil to the prepared mixture and mix well.
+Bottle the pickle in a sterilized glass jar and keep aside for 6 to 7 days. After 7 days, it is ready to eat.</t>
+  </si>
+  <si>
+    <t>Energy 95 cal
+Protein 0.5 g
+Carbohydrates 3 g
+Fiber 1 g
+Fat 9.1 g
+Cholesterol 0 mg
+Sodium 0.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-chana-achar-rajasthani-pickle-3904r</t>
+  </si>
+  <si>
+    <t>30931</t>
+  </si>
+  <si>
+    <t>aam ka achar recipe | Punjabi aam ka achar | mango pickle |</t>
+  </si>
+  <si>
+    <t>For Aam ka Achaar
+5 cups raw mangoes , cut into pieces
+1 tsp turmeric powder (haldi)
+1/4 cup fennel seeds (saunf) , coarsely ground
+1 tbsp split fenugreek seeds (methi na kuria)
+2 tbsp split mustard seeds (rai na kuria)
+1/2 tsp nigella seeds (kalonji)
+1/4 tsp asafoetida (hing)
+2 tbsp chilli powder
+3/4 cup mustard (rai / sarson) oil
+4 tbsp salt</t>
+  </si>
+  <si>
+    <t>Method
+For aam ka achaar
+To make aam ka achaar, combine the mangoes, turmeric powder and 2 tbsp of salt and toss well.
+Place the mangoes on a sieve, cover with a muslin cloth and place under the sun for 4 to 6 hours.
+Combine the rest of the ingredients in a bowl and mix well.
+Add the mangoes and toss well.
+Bottle the pickle in a sterilised glass jar. Place the pickle under the sun for 4 to 5 days. This aam ka achaar can be stored for upto 1 year.</t>
+  </si>
+  <si>
+    <t>Energy 507 cal
+Protein 1.9 g
+Carbohydrates 62 g
+Fiber 6.6 g
+Fat 31.1 g
+Cholesterol 0 mg
+Sodium 6208.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ka-achaar-mango-pickle-punjabi-achar-30931r</t>
+  </si>
+  <si>
+    <t>3901</t>
+  </si>
+  <si>
+    <t>Aam ki Launji</t>
+  </si>
+  <si>
+    <t>1 cup peeled raw mango cubes
+2 tbsp oil
+1/2 tsp fennel seeds (saunf)
+1/4 tsp nigella seeds (kalonji)
+1 tbsp coriander (dhania) powder
+1 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+1/4 cup sugar
+salt to taste</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan, add the fennel seeds and nigella seeds and sauté on a medium flame for a few seconds.
+Add the raw mango cubes, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Add ¼ cup of water, coriander powder, chilli powder, turmeric powder, sugar and salt,mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Allow the launji to cool completely.
+Once cooled, serve or store in an air-tight container and refrigerate.</t>
+  </si>
+  <si>
+    <t>Energy 56 cal
+Protein 0.1 g
+Carbohydrates 7.5 g
+Fiber 0.3 g
+Fat 3.1 g
+Cholesterol 0 mg
+Sodium 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ki-launji-3901r</t>
+  </si>
+  <si>
+    <t>4772</t>
+  </si>
+  <si>
+    <t>achari paneer tikka recipe | Punjabi achari paneer tikka | achari paneer tikka on tawa | healthy achari paneer tikka |</t>
+  </si>
+  <si>
+    <t>For The Achari Marinade
+1 tbsp green chilli pickle
+1/2 cup hung curds (chakka dahi)
+1 tsp chopped garlic (lehsun)
+1 tsp fennel seeds (saunf)
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp nigella seeds (kalonji)
+1 tsp cumin seeds (jeera)
+1/4 tsp turmeric powder (haldi)
+1 tbsp mustard (rai / sarson) oil
+salt to taste
+Other Ingredients For Achari Paneer Tikka
+1 1/2 cups paneer (cottage cheese) cubes
+oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+For the achari marinade
+Combine all the ingredients, except the curds in a mixer and blend to a coarse mixture.
+Transfer the mixture into a deep bowl, add the curds and mix well.
+How to proceed to make achari paneer tikka
+Add the paneer to the prepared achari marinade, mix gently and keep aside to marinate for 20 minutes.
+Arrange the marinated paneer cubes equally on satay sticks and keep aside.
+Heat a non-stick tava (griddle), grease it with little oil, place a few satays on it and cook on a medium flame, using a little oil, till they turn golden brown in colour from all the sides.
+Repeat step 3 to cook more satays.
+Serve the achari paneer tikka immediately.</t>
+  </si>
+  <si>
+    <t>Energy 295 cal
+Protein 9.4 g
+Carbohydrates 6.8 g
+Fiber 0 g
+Fat 24.4 g
+Cholesterol 8 mg
+Sodium 9.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-paneer-tikka-4772r</t>
+  </si>
+  <si>
+    <t>7555</t>
+  </si>
+  <si>
+    <t>achari paneer pulao recipe | Indian paneer tikka pulao | paneer tikka rice | achari biryani |</t>
+  </si>
+  <si>
+    <t>For Achari Paneer
+1 1/4 cups paneer (cottage cheese) cubes
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1/2 tsp fenugreek (methi) seeds
+1 tsp cumin seeds (jeera)
+1 tsp nigella seeds (kalonji)
+1 tsp fennel seeds (saunf)
+1/4 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1/2 cup whisked curds (dahi)
+1 tbsp readymade green chilli pickle
+salt to taste
+Other Ingredients For Achari Paneer Pulao
+3 cups cooked rice (chawal)
+1 tbsp oil
+1 to 2 cinnamon (dalchini) sticks
+2 cloves (laung / lavang)
+1/2 tsp caraway seeds (shahjeera)
+2 cardamoms (elaichi)
+salt to taste
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For achari paneer
+Heat the oil in a kadhai, add the mustard seeds, fenugreek seeds, cumin seeds, nigella seeds and fennel seeds.
+When the seeds crackle, add the turmeric powder, chilli powder and switch off the flame.
+Add the curds and mix well.
+Add the green chilli pickle and salt and mix well.
+Add the paneer cubes, mix gently and keep aside to marinate for 30 minutes.
+How to proceed
+To make the achari paneer pulao, heat the oil in a non-stick pan, add the cinnamon, cloves, caraway seeds and cardamom.
+When the caraway seeds crackle, add the rice and salt, mix well and cook on medium flame for 1 minute, while stirring continuously.
+Add the marinated paneer, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Serve the achari paneer pulao hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 377 cal
+Protein 10.1 g
+Carbohydrates 38.5 g
+Fiber 0.1 g
+Fat 19.7 g
+Cholesterol 4 mg
+Sodium 7.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-paneer-pulao-paneer-tikka-rice-7555r</t>
+  </si>
+  <si>
+    <t>30939</t>
+  </si>
+  <si>
+    <t>Afghani Paneer</t>
+  </si>
+  <si>
+    <t>For Afghani Paneer
+2 cups paneer (cottage cheese) cubes
+To Be Ground Into A Smooth Powder
+1 tbsp melon seeds (charmagaz)
+3 tbsp cashew nuts (kaju)
+1 tbsp poppy seeds (khus-khus)
+To Be Mixed Into A Marinade
+1/4 cup fresh cream
+2 tbsp milk
+2 tbsp butter
+1 tsp white pepper powder
+1 tsp garam masala
+1 tsp green chilli paste
+salt to taste
+Other Ingredients For Afghani Paneer
+oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+Combine the paneer, prepared powder and prepared marinade in a deep bowl and mix gently.
+Keep aside for 2 hours.
+Thread 6 pieces of the marinaded paneer in each satay stick or a skewer.
+Heat a non-stick tava(griddle), grease it with little oil, place 4 marinated paneer satays on it and cook using a little oil on a medium flame for approx. 10 minutes or till they turn brown in colour from all the sides.
+Repeat steps 3 and 4 to make 4 more satays.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 219 cal
+Protein 5.9 g
+Carbohydrates 4 g
+Fiber 0.1 g
+Fat 19.9 g
+Cholesterol 8.1 mg
+Sodium 28.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/afghani-paneer-30939r</t>
+  </si>
+  <si>
+    <t>33240</t>
+  </si>
+  <si>
+    <t>Adai, Protein Rich Adai Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup raw rice (chawal)
+1/4 cup toovar (arhar) dal
+1/4 cup chana dal (split bengal gram)
+1/4 cup urad dal (split black lentils)
+5 to 6 whole dry kashmiri red chillies , broken into pieces
+a pinch of asafoetida (hing)
+2 tbsp freshly grated coconut
+1/4 cup grated carrot
+1/4 cup finely chopped cabbage
+1/2 cup finely chopped onions
+1/4 cup finely chopped coriander (dhania)
+1 tbsp finely chopped curry leaves (kadi patta)
+salt to taste
+3 3/4 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+Clean, wash and soak the rice, dals and dry red chillies in enough water for 2 hours.
+Drain and blend in a mixer to a coarse paste using approx. 1¼ cups of water.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear ¼ tsp of oil over it and along the edges and cook on a medium flame till the adai turns golden brown in colour and crisp.
+Turnover and cook on another side as well.
+Fold over to make a semi-circle.
+Repeat with the remaining batter to make 14 more adais.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 73 cal
+Protein 2.7 g
+Carbohydrates 10.7 g
+Fiber 1.7 g
+Fat 2.2 g
+Cholesterol 0 mg
+Sodium 6.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adai-protein-rich-adai-recipe-33240r</t>
+  </si>
+  <si>
+    <t>22270</t>
+  </si>
+  <si>
+    <t>healthy adai recipe | diabetic adai | Indian style dalia adai without rice | Indian snack for diabetes |</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>For Adai
+1/2 cup broken wheat (dalia)
+1/4 cup green moong dal (split green gram)
+2 tbsp masoor (split red lentil) dal
+2 tbsp urad dal (split black lentils)
+1 tsp fenugreek (methi) seeds
+1/4 cup finely chopped onions
+a pinch of asafoetida (hing)
+1 tsp ginger-green chilli paste
+2 tbsp finely chopped coriander (dhania)
+1/4 tsp turmeric powder (haldi)
+1 tbsp chopped curry leaves (kadi patta)
+salt to taste
+3 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the broken wheat, green moong dal, masoor dal, urad dal and fenugreek seeds in a deep bowl and soak in enough water for 2 hours. Drain well.
+Blend them in a mixer along with approx. ¾ cup of water to a coarse mixture.
+Transfer the mixture into a deep bowl, add the onions, asafoetida, ginger-green chilli paste, coriander, turmeric powder, curry leaves and salt and mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on it and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 125 mm. (5”) diameter thin circle.
+Smear 1/8 tsp of oil over it and along the edges and cook on a medium flame till the adai turns golden brown in colour from both the sides.
+Fold over to make a semi-circle.
+Repeat steps 4 to 7 to make 23 more adais. .
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 53 cal
+Protein 2.2 g
+Carbohydrates 8.3 g
+Fiber 0.8 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 2.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adai--diabetic-adai-recipe-22270r</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>Adai Recipe, Adai Dosa, Breakfast</t>
+  </si>
+  <si>
+    <t>For Adai Dosa
+1 cup par-boiled rice (ukda chawal)
+1/4 cup toovar (arhar) dal
+1/4 cup chana dal (split bengal gram)
+2 tbsp urad dal (split black lentils)
+1 tsp roughly chopped ginger (adrak)
+4 dry red chillies (pandi)
+4 black peppercorns (kalimirch)
+1/2 tsp cumin seeds (jeera)
+1/4 cup finely chopped onions
+1/4 tsp asafoetida (hing)
+1 tbsp chopped curry leaves (kadi patta)
+2 tbsp grated coconut
+salt to taste
+coconut oil or oil for cooking
+For Serving With Adai Dosa
+coconut chutney</t>
+  </si>
+  <si>
+    <t>Method
+For adai dosa
+To make adai dosas, combine the rice, dals, ginger, peppercorns and red chillies in enough water in a deep bowl and keep aside to soak for 2 hours. Drain the water.
+Blend the mixture in a mixer to a coarse mixture using approx. 1¼ cup of water.
+Transfer the mixture into a deep bowl, add the onions, grated coconut, curry leaves, cumin seeds, asafoetida and salt. Mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear a little coconut oil over it and along the edges and cook on a medium flame till the adai dosa turns golden brown in colour and crisp.
+Turn over and cook on the other side as well.
+Fold over to make a semi-circle.
+Repeat with the remaining batter to make 9 more adai dosas.
+Serve the adai dosa immediately with coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 114 cal
+Protein 3.8 g
+Carbohydrates 21.7 g
+Fiber 1.8 g
+Fat 1.4 g
+Cholesterol 0 mg
+Sodium 6.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adai-recipe-adai-dosa-breakfast-534r</t>
+  </si>
+  <si>
+    <t>2850</t>
+  </si>
+  <si>
+    <t>Adrak Aur Ganne ka Slush, Sugarcane and Ginger Slush</t>
+  </si>
+  <si>
+    <t>1 tbsp ginger (adrak) juice
+5 cups sugarcane juice
+1/2 cup powdered sugar
+1/2 tbsp lemon juice
+1/2 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and mix well.
+Pour the mixture into a shallow aluminium container and freeze for 5 hours.
+Blend in a mixer till slushy and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 115 cal
+Protein 0.2 g
+Carbohydrates 27.5 g
+Fiber 0 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 258.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adrak-aur-ganne-ka-slush-sugarcane-and-ginger-slush-2850r</t>
+  </si>
+  <si>
+    <t>1736</t>
+  </si>
+  <si>
+    <t>achari paneer recipe | Punjabi achari paneer | restaurant style achari paneer | healthy achari paneer |</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>For Achari Paneer
+1 cup paneer (cottage cheese) cubes
+1 tbsp oil
+1 tsp fennel seeds (saunf)
+1/4 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1 tsp nigella seeds (kalonji)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+1/2 cup thinly sliced onions
+1/2 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp black salt (sanchal)
+3/4 cup whisked curds (dahi)
+1 tsp plain flour (maida)
+2 tbsp chopped coriander (dhania)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For achari paneer
+To make achari paneer, heat the oil in a deep non-stick pan, add the fennel seeds, mustard seeds, fenugreek seeds, nigella seeds, cumin seeds and asafoetida and sauté on a medium flame for 1 minute.
+Add the onion and sauté on a medium flame for 2 minutes.
+Add the paneer, turmeric, chilli powder, black salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the curds, plain flour, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and salt and mix well.
+Serve the achari paneer hot with rice or rotis.</t>
+  </si>
+  <si>
+    <t>Energy 381 cal
+Protein 13.4 g
+Carbohydrates 12.8 g
+Fiber 0.2 g
+Fat 29 g
+Cholesterol 12 mg
+Sodium 16.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-paneer-1736r</t>
+  </si>
+  <si>
+    <t>22800</t>
+  </si>
+  <si>
+    <t>baby corn paneer jalfrezi | paneer vegetable jalfrezi | Punjabi baby corn paneer jalfrezi |</t>
+  </si>
+  <si>
+    <t>For Baby Corn and Paneer Jalfrazie
+3/4 cup baby corn , cut into 4 lengthwise and blanched
+1 cup paneer (cottage cheese) , cut into 25 mm. strips
+1/4 cup thinly sliced spring onions whites
+1/4 cup thinly sliced green capsicum
+1/4 cup thinly sliced yellow capsicum
+1/4 cup thinly sliced red capsicum
+2 tbsp oil
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1/2 cup thinly sliced tomatoes
+2 tbsp tomato ketchup
+2 tbsp tomato puree
+1/4 tsp garam masala
+1 tsp vinegar
+1/4 tsp sugar
+salt to taste
+2 tbsp finely chopped spring onion greens
+For The Garnish
+1 tbsp finely chopped spring onion greens</t>
+  </si>
+  <si>
+    <t>Method
+For baby corn and paneer jalfrazie
+To make baby corn and paneer jalfrazie, heat the oil in a wok/kadhai, add the spring onion whites and sauté on a medium flame for 1 minute.
+Add the green, red and yellow capsicum and sauté on a medium flame for 2 to 3 minutes, till the capsicum turn a little soft.
+Add the baby corn, turmeric powder, chilli powder, coriander-cumin seed powder, tomatoes, tomato ketchup, tomato purée, mix well and sauté on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Add the paneer, garam masala, vinegar, sugar and salt, mix well and cook on a medium flame for 1 minute.
+Add the spring onion greens and a little water, mix well and cook on a medium flame for 1 more minute.
+Serve the baby corn and paneer jalfrazie immediately garnished with spring onion greens.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-and-paneer-jalfrazie-22800r</t>
+  </si>
+  <si>
+    <t>1121</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/Add_Photo.aspx?recipeid=1121</t>
+  </si>
+  <si>
+    <t>33087</t>
+  </si>
+  <si>
+    <t>Baby Corn and Capsicum Rice ( Tiffin Treats)</t>
+  </si>
+  <si>
+    <t>For Baby Corn and Capsicum Rice
+3/4 cup chopped baby corn
+1/2 cup chopped coloured capsicum (red , yellow and green)
+2 cups cooked long grained rice (basmati) or leftover rice
+1 tbsp oil
+1/2 cup finely chopped onions
+1 tsp finely chopped garlic (lehsun)
+4 tbsp tomato ketchup
+1 tbsp tomato puree
+1/2 tsp chilli powder
+a pinch of sugar
+salt and to taste</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>Method
+For baby corn and capsicum rice
+To make baby corn and capsicum rice, heat the oil in a broad non-stick pan, add the onions and garlic and sauté on a medium flame for 1 minute.
+Add the babycorn and coloured capsicum and sauté on a medium flame for another 3 to 4 minutes.
+Add the tomato ketchup, tomato purée, chilli powder and sugar, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the rice, salt and pepper, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+How to pack
+Allow the baby corn and capsicum rice to cool completely, and pack in an air-tight tiffin box.</t>
+  </si>
+  <si>
+    <t>Energy 141 cal
+Protein 1.7 g
+Carbohydrates 14.9 g
+Fiber 1.3 g
+Fat 8.9 g
+Cholesterol 0 mg
+Vitamin A 189.2 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0 mg
+Vitamin B3 0.3 mg
+Vitamin C 26.1 mg
+Folic Acid 10 mcg
+Calcium 14.3 mg
+Iron 0.4 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 114.3 mg
+Potassium 113.2 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-and-capsicum-rice--tiffin-treats-33087r</t>
+  </si>
+  <si>
+    <t>22576</t>
+  </si>
+  <si>
+    <t>baba ganoush recipe | roasted Indian eggplant dip | baba ganoush Lebanese recipe |</t>
+  </si>
+  <si>
+    <t>For Baba Ganoush
+2 medium sized dark skinned brinjals (baingan / eggplant)
+1 tsp olive oil for greasing
+2 tbsp olive oil
+2 tbsp tahini paste
+1 tsp roughly chopped garlic (lehsun)
+1/2 tsp cumin seeds (jeera) powder
+2 tsp lemon juice
+salt to taste
+1 tsp olive oil for drizzling
+For Serving With Baba Ganoush
+sliced cucumber
+sliced carrot
+breadsticks</t>
+  </si>
+  <si>
+    <t>Method
+Prick the brinjal with a fork, brush it evenly with oil and roast it over an open flame for 10 minutes or till the brinjal turns black from all the sides and the flesh is soft and pulpy. Allow it to cool slightly.
+Remove the skin and stem and discard them and roughly chop the brinjal.
+Combine the brinjals, olive oil, tahini paste, garlic, cumin seeds powder, lemon juice and salt in a mixer and blend till smooth.
+Put the mixture in a bowl, drizzle with olive oil.
+Serve with cucumber, carrots and breadsticks.</t>
+  </si>
+  <si>
+    <t>Energy 83 cal
+Protein 2.3 g
+Carbohydrates 8.1 g
+Fiber 9.4 g
+Fat 4.6 g
+Cholesterol 0 mg
+Sodium 5.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baba-ganoush-22576r</t>
+  </si>
+  <si>
+    <t>30992</t>
+  </si>
+  <si>
+    <t>Baby Corn Hara Masala</t>
+  </si>
+  <si>
+    <t>2 cups sliced baby corn
+2 tbsp oil
+salt to taste
+1 tsp lemon juice
+1 tsp sugar
+To Be Ground Into A Smooth Green Paste (without Using Any Water)
+1 1/2 cups chopped coriander (dhania)
+1/2 tsp chopped ginger (adrak)
+1 tsp chopped garlic (lehsun)
+1 tsp chopped green chillies
+1 cup chopped onions
+1 tsp cumin seeds (jeera)
+1/2 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan, add the green paste and sauté on a medium flame for 3 to 4 minutes.
+Add the baby corn, salt and 4 tbsp of water and mix well. Cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Remove from the flame, add the lemon juice and sugar and mix well.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 169 cal
+Protein 3.4 g
+Carbohydrates 24.4 g
+Fiber 2.5 g
+Fat 7.7 g
+Cholesterol 0 mg
+Sodium 11.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-hara-masala-30992r</t>
+  </si>
+  <si>
+    <t>2745</t>
+  </si>
+  <si>
+    <t>Baby Corn Hara Masala ( Microwave Recipe)</t>
+  </si>
+  <si>
+    <t>1 cup baby corn , cut into 4 lengthwise
+1 tsp lemon juice
+1 tsp sugar
+2 tbsp oil
+salt to taste
+To Be Ground Into A Paste
+1 cup chopped coriander (dhania)
+12 mm (1/2") piece ginger (adrak)
+2 garlic (lehsun) cloves (lehsun)
+1 green chilli
+1 onion , chopped
+1 tsp cumin seeds (jeera)
+For The Garnish
+1 tbsp sliced tomatoes
+4 lemon wedges</t>
+  </si>
+  <si>
+    <t>Method
+In a glass bowl, add the oil and the prepared paste. Microwave on high for 1 minute.
+Add the baby corn, salt and 2 tablespoons of water and mix well. Cover with a lid and microwave on high for 6 minutes.
+Add the lemon juice and sugar. Mix well.
+Serve hot, garnished with the sliced tomatoes and lemon wedges.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-hara-masala--microwave-recipe-2745r</t>
+  </si>
+  <si>
+    <t>4927</t>
+  </si>
+  <si>
+    <t>Baba Ghanouj ( Microwave Recipe)</t>
+  </si>
+  <si>
+    <t>1/3 cup sesame (til) paste
+1/3 cup peeled and chopped brinjals (baingan / eggplant)
+1/3 cup curds (dahi)
+1/4 tsp chopped garlic (lehsun)
+1 tbsp olive oil
+1 tbsp chopped mint leaves (phudina)
+1/4 tsp lemon juice
+salt to taste
+For The Garnish
+1 tbsp sliced olives
+3 to 4 mint sprigs</t>
+  </si>
+  <si>
+    <t>Method
+In a greased microwave safe dish place the brinjal and microwave on high for 2 minutes. Cool, mash to a pulp and keep aside.
+Combine all the other ingredients together in another bowl and mix well.
+Lightly fold in the brinjal pulp. Refrigerate till chilled.
+Garnish with olives and mint springs and serve with pita bread or cream cracker biscuits.
+Tips
+Grind the sesame seeds with a little water in a blender to make a smooth paste.</t>
+  </si>
+  <si>
+    <t>Energy 28 cal
+Protein 0.7 g
+Carbohydrates 0.9 g
+Fiber 0.6 g
+Fat 2.3 g
+Cholesterol 0 mg
+Vitamin A 25.3 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.1 mg
+Vitamin C 0.5 mg
+Folic Acid 1.6 mcg
+Calcium 42.2 mg
+Iron 0.3 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 1 mg
+Potassium 10.6 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baba-ghanouj--microwave-recipe-4927r</t>
+  </si>
+  <si>
+    <t>30982</t>
+  </si>
+  <si>
+    <t>Baby Corn Fritters</t>
+  </si>
+  <si>
+    <t>For Baby Corn Fritters
+1 cup baby corn , cut into halves vertically
+1/2 cup plain flour (maida)
+1 tbsp cornflour
+2 tbsp curd (dahi)
+1 tsp chilli powder
+1 tsp garlic (lehsun) paste
+a pinch of baking soda
+salt to taste
+oil for deep-frying
+For Serving With Baby Corn Fritters
+chilli-garlic sauce</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients along with approx. ½ cup of water in a deep bowl and mix well using a whisk to make a thick batter.
+Dip each baby corn halve into the batter and deep-fry in hot oil, a few at a time, till they turn golden brown in colour from all the sides. Drain on an absorbent paper.
+Serve immediately with chilli-garlic sauce.</t>
+  </si>
+  <si>
+    <t>Energy 244 cal
+Protein 2.9 g
+Carbohydrates 18 g
+Fiber 0.5 g
+Fat 17.7 g
+Cholesterol 0 mg
+Vitamin A 170.8 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.9 mg
+Vitamin C 0.1 mg
+Folic Acid 12.3 mcg
+Calcium 32.3 mg
+Iron 0.9 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 3.9 mg
+Potassium 48.3 mg
+Zinc 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-fritters-30982r</t>
+  </si>
+  <si>
+    <t>30990</t>
+  </si>
+  <si>
+    <t>baby corn and mushroom salad recipe | Indian salad for lunch | sprouts, capsicum, carrots salad | Vitamin C, Vitamin B1, Folic Acid and iron rich Indian salad |</t>
+  </si>
+  <si>
+    <t>Indian salad for lunch</t>
+  </si>
+  <si>
+    <t>For Baby Corn and Mushroom Salad
+1/2 cup chopped spring onions
+1/2 cup chopped mushrooms (khumbh)
+1/2 cup diagonally cut and blanched baby corn
+3/4 cup bean sprouts
+1/2 cup chopped coloured capsicum
+1/2 cup carrot juliennes
+1/2 cup blanched broccoli florets
+For The Dressing
+2 tsp olive oil
+1 1/2 tsp finely chopped garlic (lehsun)
+1 tbsp finely chopped basil
+1 1/2 tsp lemon juice
+salt to taste
+freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Method
+For the dressing
+Heat the oil in a non-stick pan, add the garlic and sauté till it browns lightly.
+Add the basil leaves and mix well. Cool completely.
+Add the lemon juice, salt and pepper and mix well.
+How to proceed
+To make baby corn and mushroom salad, in a big bowl put spring onions, mushrooms, baby corn, bean sprouts, capsicum, carrot and broccoli.
+Cover with a cling wrap and refrigerate till required.
+Just before serving, add the dressing to the salad. Toss well.
+Serve baby corn and mushroom salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 114 cal
+Protein 3.6 g
+Carbohydrates 12.7 g
+Fiber 5.3 g
+Fat 5.9 g
+Cholesterol 0 mg
+Sodium 13.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-and-mushroom-salad-30990r</t>
+  </si>
+  <si>
+    <t>38864</t>
+  </si>
+  <si>
+    <t>Baby Corn and Sweet Corn Pizza in A Pan</t>
+  </si>
+  <si>
+    <t>2 pizza base (200 mm. (8”)
+1 recipe pizza sauce
+1 cup grated mozzarella cheese
+1 tbsp olive oil or any other oil for cooking
+For The Topping
+1 1/4 cups sliced and blanched baby corn
+1 cup blanched sweet corn kernels (makai ke dane)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Slightly heat half the olive oil in a non-stick pan and place pizza base on it.
+Spread half the tomato sauce over the pizza base.
+Neatly arrange half the sweet corn and half cup of baby corn slices over the sauce. Sprinkle salt.
+Top with half the cheese.
+Cover the pan with a lid and cook on a very slow flame for 10 to 12 minutes or till the base is evenly browned and the cheese melts.
+Repeat with the remaining ingredients to make another pizza.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 539 cal
+Protein 21.5 g
+Carbohydrates 72.3 g
+Fiber 4.2 g
+Fat 20.8 g
+Cholesterol 23 mg
+Vitamin A 185.5 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 1.2 mg
+Vitamin C 8.4 mg
+Folic Acid 41.8 mcg
+Calcium 266.7 mg
+Iron 1.8 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 659.6 mg
+Potassium 333.5 mg
+Zinc 0.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-and-sweet-corn-pizza-in-a-pan-38864r</t>
+  </si>
+  <si>
+    <t>32729</t>
+  </si>
+  <si>
+    <t>fried baby corn recipe | baby corn fry | fried baby corn pakoda | baby corn starter recipe |</t>
+  </si>
+  <si>
+    <t>Energy 184 cal
+Protein 2.9 g
+Carbohydrates 18 g
+Fiber 0.5 g
+Fat 11 g
+Cholesterol 0 mg
+Vitamin A 110.8 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.9 mg
+Vitamin C 0.1 mg
+Folic Acid 12.3 mcg
+Calcium 32.3 mg
+Iron 0.9 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 3.9 mg
+Potassium 48.3 mg
+Zinc 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-fritters-fried-baby-corn-32729r</t>
+  </si>
+  <si>
+    <t>32605</t>
+  </si>
+  <si>
+    <t>Baby Corn and Capsicum Stir-fry Envelope</t>
+  </si>
+  <si>
+    <t>For The Rotis
+3/4 cup whole wheat flour (gehun ka atta)
+salt to taste
+1/4 tsp oil
+whole wheat flour (gehun ka atta) for dusting
+For The Stir-fry
+1 tsp oil
+1/3 cup sliced spring onions whites
+1/2 cup thinly sliced baby corn
+1/2 cup thinly sliced capsicum
+1 tbsp schezuan sauce
+salt to taste
+1/4 cup sliced spring onion greens
+Other Ingredients
+1/2 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+For the rotis
+Combine the flour and salt in a bowl and knead into a soft dough using enough water. Keep aside for 15 hour.
+Knead again using ¼ tsp of oil till it is smooth and elastic.
+Divide it into 4 equal portions and roll out each portion of the dough into a thin circle of 150 mm. (6”) diameter using a little flour.
+Heat a wok / wide iron kadhai upside down on a high flame and when hot, place the roti gently over the wok / kadhai ensuring that no creases form on the surface.
+Cook it till small blisters appear on the surface. Turn over the roti and cook for few more seconds till done.
+Repeat with the remaining dough portions to make 3 more rotis and keep aside.
+For the stir-fry
+Heat the oil in a wok or a non-stick pan, add the spring onion whites and sauté on a high flame for a minute.
+Add baby corn and capsicum and sauté on a high flame for another 2 minutes.
+Add the schezuan sauce and salt and mix well.
+Add the spring onion greens and sauté on a high flame for another 30 seconds.
+Divide the mixture into 4 equal portions and keep aside to cool for 5 minutes.
+How to proceed
+Place a roti on a flat on a dry surface.
+Place a potion of the mixture in the centre, fold 2 opposite corners of the roti over the filling, overlapping them slightly. Now fold the remaining 2 sides to seal the stuffing well.
+Heat a non-stick tava (griddle) and cook the envelope, using 1/8 tsp of oil, till they are golden brown in colour from both the sides.
+Repeat with the remaining rotis and stir-fry to make 3 more envelopes.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-and-capsicum-stir-fry-envelope-32605r</t>
+  </si>
+  <si>
+    <t>22515</t>
+  </si>
+  <si>
+    <t>Baby Corn Masala</t>
+  </si>
+  <si>
+    <t>1 cup sliced baby corn
+2 tsp oil
+1/2 tsp carom seeds (ajwain)
+1/4 cup sliced onions
+1/4 cup coloured thinly sliced capsicum (yellow capsicum , red capsicum , green capsicum)
+a pinch of turmeric powder (haldi)
+1/4 tsp chilli powder
+1/4 tsp garam masala
+1/4 tsp cardamom (elaichi) powder
+1/4 cup thinly sliced tomatoes
+salt to taste
+For The Garnish
+1 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the oil and carom seeds in a deep microwave safe bowl, mix well and microwave on high for 1 minute.
+Add the onions, mix well and microwave on high for 2 minutes.
+Add the baby corn, capsicums and 2 tablespoon water, mix well and microwave on high for 3 minutes, stirring once in between after 1½ minutes.
+Add the turmeric powder, chilli powder, garam masala, cardamom powder, tomatoes and salt, mix well and microwave on high for 3 more minutes.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 127 cal
+Protein 3 g
+Carbohydrates 20.1 g
+Fiber 2.3 g
+Fat 5.1 g
+Cholesterol 0 mg
+Vitamin A 135 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.1 mg
+Vitamin B3 0.2 mg
+Vitamin C 15.4 mg
+Folic Acid 23.1 mcg
+Calcium 13.2 mg
+Iron 0.5 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 6.6 mg
+Potassium 155.6 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-masala-22515r</t>
+  </si>
+  <si>
+    <t>42478</t>
+  </si>
+  <si>
+    <t>Baby Spinach, Apple and Pecan Salad</t>
+  </si>
+  <si>
+    <t>3 cups baby spinach
+1 cup sliced apples
+1/2 cup roasted pecans
+2 tbsp olive oil
+1 tbsp apple cider vinegar
+2 tsp whole grain mustard paste
+1 1/2 tsp honey
+1/2 tsp sea salt (khada namak)
+1/4 tsp freshly ground black pepper (kalimirch)</t>
+  </si>
+  <si>
+    <t>Method
+Combine the olive oil, apple cider vinegar, mustard paste, honey, pepper powder and sea salt in a small bowl and mix well using a whisk.
+Combine all the remaining ingredients along with the olive oil –sea salt mixture and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 326 cal
+Protein 3.2 g
+Carbohydrates 16.4 g
+Fiber 5.4 g
+Fat 29 g
+Cholesterol 0 mg
+Sodium 56 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-spinach-apple-and-pecan-salad-42478r</t>
+  </si>
+  <si>
+    <t>41015</t>
+  </si>
+  <si>
+    <t>Baby Potatoes and Bell Pepper Stir-fry</t>
+  </si>
+  <si>
+    <t>1 1/2 cups boiled baby potatoes halves (unpeeled)
+1/2 cup capsicum (red , yellow and green) cubes
+3 tsp olive oil
+1 tsp finely chopped garlic (lehsun)
+1/2 cup onion cubes
+1/2 cup blanched broccoli florets
+1 tsp dried oregano
+1 tsp dry red chilli flakes (paprika)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Heat 2 tsp of olive oil in a broad non-stick pan, add the potato halves and sauté on a medium flame for 5 minutes. Transfer it into a bowl and keep aside.
+In the same non-stick pan heat the remaining 1 tsp of olive oil, add the garlic and onions and sauté on a medium flame for 1 minute.
+Add the capsicum, broccoli, oregano, chilli flakes and salt and sauté on a medium flame for 1 minute.
+Add the sautéed potato halves, toss gently and cook on a medium flame for a few seconds.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 118 cal
+Protein 1.8 g
+Carbohydrates 19.1 g
+Fiber 1.8 g
+Fat 3.9 g
+Cholesterol 0 mg
+Sodium 9.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-potatoes-and-bell-pepper-stir-fry-41015r</t>
+  </si>
+  <si>
+    <t>6169</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/baby-corn-paneer-jalfrazie--quick-recipe-6169r</t>
+  </si>
+  <si>
+    <t>PCOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -186,7 +1682,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
@@ -204,119 +1700,1465 @@
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="K6" t="s" s="0">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="K7" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="J9" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K9" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="K10" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s" s="0">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G12" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H12" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="K12" t="s" s="0">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="K13" t="s" s="0">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G15" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="F16" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G16" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="H16" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="K16" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="K17" t="s" s="0">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>118</v>
+      </c>
+      <c r="E18" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="F18" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="C19" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E19" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="F19" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G19" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="H19" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="K19" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>132</v>
+      </c>
+      <c r="C20" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="E20" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="F20" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G20" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="H20" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="K20" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="E21" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="F21" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G21" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="I21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="K21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="F22" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G22" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="H22" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="I22" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="K22" t="s" s="0">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="F23" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G23" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s" s="0">
+        <v>153</v>
+      </c>
+      <c r="J23" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K23" t="s" s="0">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="J24" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K24" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G25" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="H25" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="I25" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="K25" t="s" s="0">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="G26" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="I26" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="K26" t="s" s="0">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G27" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="H27" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="I27" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="K27" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G28" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="H28" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="J28" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K28" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G29" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H29" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="I29" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="K29" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G30" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H30" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="I30" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="K30" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G31" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="H31" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="I31" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="K31" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>201</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="I32" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="K32" t="s" s="0">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>207</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G33" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="H33" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="I33" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="K33" t="s" s="0">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G34" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="H34" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="J34" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K34" t="s" s="0">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G35" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="H35" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="I35" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="K35" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="G36" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="H36" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="I36" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="K36" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>229</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="G37" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="H37" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="I37" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="K37" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="J38" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="K38" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>36</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s" s="0">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s" s="0">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="H2" t="s" s="0">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>6</v>
+        <v>42</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s" s="0">
         <v>4</v>
       </c>
       <c r="H3" t="s" s="0">
-        <v>12</v>
-      </c>
-      <c r="I3" t="s" s="0">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>14</v>
+        <v>236</v>
+      </c>
+      <c r="K3" t="s" s="0">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="D4" t="s" s="0">
+        <v>9</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F4" t="s" s="0">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s" s="0">
         <v>4</v>
       </c>
       <c r="H4" t="s" s="0">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s" s="0">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s" s="0">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s" s="0">
-        <v>25</v>
+        <v>236</v>
+      </c>
+      <c r="K5" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>